--- a/data/trans_dic/P07_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P07_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7968650166390815</v>
+        <v>0.7957261249475028</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7855808932484676</v>
+        <v>0.7877255440339233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8039420161200295</v>
+        <v>0.8028905769386281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7411519705684739</v>
+        <v>0.7381252909164461</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6665909254026091</v>
+        <v>0.6665445186469287</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6892870785209894</v>
+        <v>0.6907020824409327</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6913989614035323</v>
+        <v>0.6878031896806662</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7038175825961208</v>
+        <v>0.7029985001655382</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7413269676313458</v>
+        <v>0.7412572943161557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7453423600319431</v>
+        <v>0.7472215450794253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7574103854203126</v>
+        <v>0.7586851368847207</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7303230291448942</v>
+        <v>0.7297816949752207</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8535424995685328</v>
+        <v>0.8547155396241388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8457740999183438</v>
+        <v>0.8465935572862474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8626613744749023</v>
+        <v>0.8607562579585936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8036811694789715</v>
+        <v>0.8050448792200663</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7369186095772453</v>
+        <v>0.7347283854915236</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7581041108014466</v>
+        <v>0.7584913789910863</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.762843732505826</v>
+        <v>0.7593574089136712</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7536923893846442</v>
+        <v>0.7543341122758173</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7864931376936612</v>
+        <v>0.7874181752406427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7933636127514689</v>
+        <v>0.7932958593445411</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8032761404379798</v>
+        <v>0.8071414392590217</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7711264022793525</v>
+        <v>0.7713342216947663</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.8013744098687294</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.8035022881193153</v>
+        <v>0.8035022881193152</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8214054044148172</v>
+        <v>0.821137801547964</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7989164140141827</v>
+        <v>0.7986767601543958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.822322565296549</v>
+        <v>0.8214504546043299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8331689310027155</v>
+        <v>0.8299559537607805</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6487644346013643</v>
+        <v>0.6514021712694114</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7008171444207562</v>
+        <v>0.6961862882905335</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7313969466708259</v>
+        <v>0.7289347140162776</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7309854243180068</v>
+        <v>0.7299940607192947</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.743247609781965</v>
+        <v>0.7424284783628671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7553374862520968</v>
+        <v>0.7564816105981644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7835970948033859</v>
+        <v>0.7835551263221132</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7878575195650095</v>
+        <v>0.7879940974252969</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8678113969114974</v>
+        <v>0.8679770433549288</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8459075225679248</v>
+        <v>0.8482043025219398</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8666791677481716</v>
+        <v>0.8669149387360733</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8739121315591769</v>
+        <v>0.8759838587927927</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7120735217639869</v>
+        <v>0.7125510817747001</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7557355509501802</v>
+        <v>0.7536890138095458</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7886928817961071</v>
+        <v>0.7829737468251425</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7737547353859732</v>
+        <v>0.774994124170207</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7830803392652921</v>
+        <v>0.782689109739019</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7931347827758171</v>
+        <v>0.7931411424355874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8190366792387969</v>
+        <v>0.8205308372119583</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8201121144635594</v>
+        <v>0.8186624160526085</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.8106072332626325</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8218274767658297</v>
+        <v>0.8218274767658298</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8128934466415196</v>
+        <v>0.8124919159503904</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8067237719600173</v>
+        <v>0.8086349202431412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8144817166186256</v>
+        <v>0.8126501668529564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8238364530351227</v>
+        <v>0.8238135610218504</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7000218608010882</v>
+        <v>0.7038719214204324</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6824725715938575</v>
+        <v>0.6911297554553597</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7450446126259945</v>
+        <v>0.7462090709377864</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7667253408432173</v>
+        <v>0.7671526714151821</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7643061237782176</v>
+        <v>0.7637764020413603</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7557315371121524</v>
+        <v>0.7577755330636812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7897752371971289</v>
+        <v>0.788541755295957</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.803674021814401</v>
+        <v>0.8010885502037206</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8691255390661091</v>
+        <v>0.8720963006194413</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8661688694836727</v>
+        <v>0.8623345562543123</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.87236579083001</v>
+        <v>0.8673408144836215</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.877881316534918</v>
+        <v>0.875330140595178</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7690044988139937</v>
+        <v>0.7706322385538368</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.755521294247551</v>
+        <v>0.758041191433935</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8083187211954767</v>
+        <v>0.8088730267205571</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8144549989986087</v>
+        <v>0.8158617025101983</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8099080763151809</v>
+        <v>0.8096254947015579</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7986318391190859</v>
+        <v>0.8021196791018249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8305969586096718</v>
+        <v>0.8303759266824174</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.839395060616745</v>
+        <v>0.839728053734293</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.7700006839638951</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7520662374421224</v>
+        <v>0.7520662374421223</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7927365550100554</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8301655652367724</v>
+        <v>0.8331122789706227</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8281312717474695</v>
+        <v>0.8275471781850907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8243542657898333</v>
+        <v>0.8258168977585929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7865017379640232</v>
+        <v>0.7882092087225837</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7084614880260666</v>
+        <v>0.7074848205783942</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7242430215763481</v>
+        <v>0.725020629563765</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7381582927032009</v>
+        <v>0.7398901498017386</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7297989898761282</v>
+        <v>0.7301669150059888</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7736969668914655</v>
+        <v>0.7754455865020214</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7814300913753925</v>
+        <v>0.7804323882954344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7895478984802589</v>
+        <v>0.7880993584636214</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7654106024038067</v>
+        <v>0.7650583167381041</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8752091755185033</v>
+        <v>0.8776070579739195</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8730294581066158</v>
+        <v>0.8746862787473223</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8721712126067621</v>
+        <v>0.87111197087874</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8351804585368223</v>
+        <v>0.8348807704693564</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7612313410831689</v>
+        <v>0.7617599542828825</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7780751545326049</v>
+        <v>0.7797261797289725</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7936739896042656</v>
+        <v>0.7944859147644424</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7746785465337007</v>
+        <v>0.7733433706236095</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8108656285174488</v>
+        <v>0.811186597373786</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8176165756293339</v>
+        <v>0.8175045085955777</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8259021268365101</v>
+        <v>0.8262717273450629</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.796082108430797</v>
+        <v>0.7963012386707519</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8430440069983642</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8264633583380862</v>
+        <v>0.8264633583380863</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.713626529777061</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.830301165466482</v>
+        <v>0.8306456534827377</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8189759697073598</v>
+        <v>0.8194273746796841</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8301552547304524</v>
+        <v>0.8298351393420164</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8125562971944268</v>
+        <v>0.8127399023182691</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6977721520795739</v>
+        <v>0.6981510962277921</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7167443397931442</v>
+        <v>0.7168365794555097</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7453926137674952</v>
+        <v>0.7460790691672898</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7457666481994063</v>
+        <v>0.7453391355879495</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7674791118559181</v>
+        <v>0.7669534477951858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7711726170215271</v>
+        <v>0.7713827966366892</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7918426367751612</v>
+        <v>0.7918642720074618</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7827984180046281</v>
+        <v>0.7820677412406597</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8556633537307452</v>
+        <v>0.8553821084969315</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8458678897493173</v>
+        <v>0.8473798052860224</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8547081008483015</v>
+        <v>0.8551686754435422</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8375584996329222</v>
+        <v>0.8394656221820924</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7302922088040439</v>
+        <v>0.7279545379440623</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7477302367043016</v>
+        <v>0.7473560243901251</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7768958040473157</v>
+        <v>0.7762332621067763</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7682899491312805</v>
+        <v>0.7685804245759688</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7871556206855586</v>
+        <v>0.7876568710603387</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7923931753172311</v>
+        <v>0.7919548925252559</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8109714271108657</v>
+        <v>0.8113732937598066</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7999769403809257</v>
+        <v>0.7990874951854534</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>553034</v>
+        <v>552243</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>552040</v>
+        <v>553547</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>542500</v>
+        <v>541791</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>511921</v>
+        <v>509831</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>458849</v>
+        <v>458817</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>480468</v>
+        <v>481454</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>465200</v>
+        <v>462781</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>516729</v>
+        <v>516127</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1024783</v>
+        <v>1024687</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1043305</v>
+        <v>1045935</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1020716</v>
+        <v>1022434</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1040629</v>
+        <v>1039858</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>592369</v>
+        <v>593183</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>594339</v>
+        <v>594915</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>582124</v>
+        <v>580838</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>555111</v>
+        <v>556053</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>507259</v>
+        <v>505751</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>528436</v>
+        <v>528706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>513271</v>
+        <v>510925</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>553346</v>
+        <v>553817</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1087219</v>
+        <v>1088498</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1110523</v>
+        <v>1110429</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1082526</v>
+        <v>1087735</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1098770</v>
+        <v>1099066</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>789137</v>
+        <v>788880</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>811662</v>
+        <v>811418</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>839929</v>
+        <v>839039</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>873925</v>
+        <v>870555</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>628259</v>
+        <v>630813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>721325</v>
+        <v>716559</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>760447</v>
+        <v>757887</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>782767</v>
+        <v>781705</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1433806</v>
+        <v>1432225</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1544828</v>
+        <v>1547168</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1615095</v>
+        <v>1615009</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1670065</v>
+        <v>1670354</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>833720</v>
+        <v>833879</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>859402</v>
+        <v>861736</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>885236</v>
+        <v>885476</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>916661</v>
+        <v>918834</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>689567</v>
+        <v>690029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>777851</v>
+        <v>775744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>820019</v>
+        <v>814073</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>828566</v>
+        <v>829893</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1510647</v>
+        <v>1509893</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1622132</v>
+        <v>1622145</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1688141</v>
+        <v>1691221</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1738437</v>
+        <v>1735364</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>551556</v>
+        <v>551283</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>608538</v>
+        <v>609980</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>618641</v>
+        <v>617250</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>661601</v>
+        <v>661582</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>478704</v>
+        <v>481336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>530400</v>
+        <v>537128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>584107</v>
+        <v>585020</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>622780</v>
+        <v>623127</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1041252</v>
+        <v>1040531</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1157408</v>
+        <v>1160539</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1219051</v>
+        <v>1217147</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1298200</v>
+        <v>1294024</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>589710</v>
+        <v>591725</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>653380</v>
+        <v>650487</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>662607</v>
+        <v>658790</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>705003</v>
+        <v>702954</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>525877</v>
+        <v>526990</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>587172</v>
+        <v>589130</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>633713</v>
+        <v>634148</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>661548</v>
+        <v>662691</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1103378</v>
+        <v>1102993</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1223110</v>
+        <v>1228452</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1282061</v>
+        <v>1281720</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1355902</v>
+        <v>1356440</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>782200</v>
+        <v>784977</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>784037</v>
+        <v>783484</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>769743</v>
+        <v>771109</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>778685</v>
+        <v>780376</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>735817</v>
+        <v>734802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>760433</v>
+        <v>761250</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>769726</v>
+        <v>771532</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>816675</v>
+        <v>817087</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1532565</v>
+        <v>1536029</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1560300</v>
+        <v>1558308</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1560556</v>
+        <v>1557693</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1614331</v>
+        <v>1613588</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>824641</v>
+        <v>826901</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>826544</v>
+        <v>828113</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>814392</v>
+        <v>813403</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>826880</v>
+        <v>826584</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>790624</v>
+        <v>791173</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>816956</v>
+        <v>818689</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>827615</v>
+        <v>828462</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>866897</v>
+        <v>865403</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1606190</v>
+        <v>1606826</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1632555</v>
+        <v>1632331</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1632410</v>
+        <v>1633141</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1679020</v>
+        <v>1679482</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2719617</v>
+        <v>2720746</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2800698</v>
+        <v>2802242</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2813825</v>
+        <v>2812739</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2870568</v>
+        <v>2871217</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2357910</v>
+        <v>2359190</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2546920</v>
+        <v>2547248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2638177</v>
+        <v>2640607</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2786421</v>
+        <v>2784824</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5107309</v>
+        <v>5103811</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5377551</v>
+        <v>5379017</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5486542</v>
+        <v>5486692</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5690224</v>
+        <v>5684913</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2802690</v>
+        <v>2801769</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2892662</v>
+        <v>2897832</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2897047</v>
+        <v>2898608</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2958895</v>
+        <v>2965632</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2467801</v>
+        <v>2459902</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2657027</v>
+        <v>2655697</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2749677</v>
+        <v>2747332</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2870576</v>
+        <v>2871661</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5238250</v>
+        <v>5241586</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5525526</v>
+        <v>5522470</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5619082</v>
+        <v>5621867</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5815096</v>
+        <v>5808631</v>
       </c>
     </row>
     <row r="24">
